--- a/kelompok nomer2.xlsx
+++ b/kelompok nomer2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t xml:space="preserve">+62 812-3075-7151</t>
   </si>
@@ -76,13 +76,44 @@
   <si>
     <t xml:space="preserve">08123075714</t>
   </si>
+  <si>
+    <t xml:space="preserve">08123075725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075724</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -155,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,6 +196,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +227,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D91 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1867,8 +1906,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1889,18 +1928,19 @@
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="4" t="str">
         <f aca="false">$D$1&amp;E1</f>
-        <v>081230757151</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>3</v>
+        <v>081230757251</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,7 +1952,7 @@
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">$D$1&amp;E2</f>
-        <v>081230757152</v>
+        <v>081230757252</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">A2&amp;"_onde"</f>
@@ -1928,7 +1968,7 @@
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">$D$1&amp;E3</f>
-        <v>081230757153</v>
+        <v>081230757253</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">A3&amp;"_onde"</f>
@@ -1944,7 +1984,7 @@
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">$D$1&amp;E4</f>
-        <v>081230757154</v>
+        <v>081230757254</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">A4&amp;"_onde"</f>
@@ -1960,7 +2000,7 @@
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">$D$1&amp;E5</f>
-        <v>081230757155</v>
+        <v>081230757255</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">A5&amp;"_onde"</f>
@@ -1976,7 +2016,7 @@
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">$D$1&amp;E6</f>
-        <v>081230757156</v>
+        <v>081230757256</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">A6&amp;"_onde"</f>
@@ -1992,7 +2032,7 @@
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">$D$1&amp;E7</f>
-        <v>081230757157</v>
+        <v>081230757257</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">A7&amp;"_onde"</f>
@@ -2008,7 +2048,7 @@
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">$D$1&amp;E8</f>
-        <v>081230757158</v>
+        <v>081230757258</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">A8&amp;"_onde"</f>
@@ -2024,7 +2064,7 @@
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">$D$1&amp;E9</f>
-        <v>081230757159</v>
+        <v>081230757259</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">A9&amp;"_onde"</f>
@@ -2040,7 +2080,7 @@
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">$D$1&amp;E10</f>
-        <v>081230757150</v>
+        <v>081230757250</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">A10&amp;"_onde"</f>
@@ -2054,15 +2094,15 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">$D$11&amp;E11</f>
-        <v>081230757161</v>
+        <v>081230757261</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">A11&amp;"_onde"</f>
@@ -2078,7 +2118,7 @@
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">$D$11&amp;E12</f>
-        <v>081230757162</v>
+        <v>081230757262</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">A12&amp;"_onde"</f>
@@ -2094,7 +2134,7 @@
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">$D$11&amp;E13</f>
-        <v>081230757163</v>
+        <v>081230757263</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">A13&amp;"_onde"</f>
@@ -2110,7 +2150,7 @@
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">$D$11&amp;E14</f>
-        <v>081230757164</v>
+        <v>081230757264</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">A14&amp;"_onde"</f>
@@ -2126,7 +2166,7 @@
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">$D$11&amp;E15</f>
-        <v>081230757165</v>
+        <v>081230757265</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">A15&amp;"_onde"</f>
@@ -2142,7 +2182,7 @@
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">$D$11&amp;E16</f>
-        <v>081230757166</v>
+        <v>081230757266</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">A16&amp;"_onde"</f>
@@ -2158,7 +2198,7 @@
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">$D$11&amp;E17</f>
-        <v>081230757167</v>
+        <v>081230757267</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">A17&amp;"_onde"</f>
@@ -2174,7 +2214,7 @@
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">$D$11&amp;E18</f>
-        <v>081230757168</v>
+        <v>081230757268</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">A18&amp;"_onde"</f>
@@ -2190,7 +2230,7 @@
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">$D$11&amp;E19</f>
-        <v>081230757169</v>
+        <v>081230757269</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">A19&amp;"_onde"</f>
@@ -2206,7 +2246,7 @@
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">$D$11&amp;E20</f>
-        <v>081230757160</v>
+        <v>081230757260</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">A20&amp;"_onde"</f>
@@ -2220,15 +2260,15 @@
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">$D$21&amp;E21</f>
-        <v>081230757171</v>
+        <v>081230757271</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">A21&amp;"_onde"</f>
@@ -2244,7 +2284,7 @@
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">$D$21&amp;E22</f>
-        <v>081230757172</v>
+        <v>081230757272</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">A22&amp;"_onde"</f>
@@ -2260,7 +2300,7 @@
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">$D$21&amp;E23</f>
-        <v>081230757173</v>
+        <v>081230757273</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">A23&amp;"_onde"</f>
@@ -2276,7 +2316,7 @@
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">$D$21&amp;E24</f>
-        <v>081230757174</v>
+        <v>081230757274</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">A24&amp;"_onde"</f>
@@ -2292,7 +2332,7 @@
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">$D$21&amp;E25</f>
-        <v>081230757175</v>
+        <v>081230757275</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">A25&amp;"_onde"</f>
@@ -2308,7 +2348,7 @@
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">$D$21&amp;E26</f>
-        <v>081230757176</v>
+        <v>081230757276</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">A26&amp;"_onde"</f>
@@ -2324,7 +2364,7 @@
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">$D$21&amp;E27</f>
-        <v>081230757177</v>
+        <v>081230757277</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">A27&amp;"_onde"</f>
@@ -2340,7 +2380,7 @@
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">$D$21&amp;E28</f>
-        <v>081230757178</v>
+        <v>081230757278</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">A28&amp;"_onde"</f>
@@ -2356,7 +2396,7 @@
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">$D$21&amp;E29</f>
-        <v>081230757179</v>
+        <v>081230757279</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">A29&amp;"_onde"</f>
@@ -2372,7 +2412,7 @@
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">$D$21&amp;E30</f>
-        <v>081230757170</v>
+        <v>081230757270</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">A30&amp;"_onde"</f>
@@ -2386,15 +2426,15 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">$D$31&amp;E31</f>
-        <v>081230757181</v>
+        <v>081230757281</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">A31&amp;"_onde"</f>
@@ -2410,7 +2450,7 @@
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">$D$31&amp;E32</f>
-        <v>081230757182</v>
+        <v>081230757282</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">A32&amp;"_onde"</f>
@@ -2426,7 +2466,7 @@
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">$D$31&amp;E33</f>
-        <v>081230757183</v>
+        <v>081230757283</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">A33&amp;"_onde"</f>
@@ -2442,7 +2482,7 @@
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">$D$31&amp;E34</f>
-        <v>081230757184</v>
+        <v>081230757284</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">A34&amp;"_onde"</f>
@@ -2458,7 +2498,7 @@
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">$D$31&amp;E35</f>
-        <v>081230757185</v>
+        <v>081230757285</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">A35&amp;"_onde"</f>
@@ -2474,7 +2514,7 @@
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">$D$31&amp;E36</f>
-        <v>081230757186</v>
+        <v>081230757286</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">A36&amp;"_onde"</f>
@@ -2490,7 +2530,7 @@
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">$D$31&amp;E37</f>
-        <v>081230757187</v>
+        <v>081230757287</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">A37&amp;"_onde"</f>
@@ -2506,7 +2546,7 @@
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">$D$31&amp;E38</f>
-        <v>081230757188</v>
+        <v>081230757288</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">A38&amp;"_onde"</f>
@@ -2522,7 +2562,7 @@
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">$D$31&amp;E39</f>
-        <v>081230757189</v>
+        <v>081230757289</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">A39&amp;"_onde"</f>
@@ -2538,7 +2578,7 @@
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">$D$31&amp;E40</f>
-        <v>081230757180</v>
+        <v>081230757280</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">A40&amp;"_onde"</f>
@@ -2552,15 +2592,15 @@
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>11</v>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">$D$41&amp;E41</f>
-        <v>081230757191</v>
+        <v>081230757291</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">A41&amp;"_onde"</f>
@@ -2576,7 +2616,7 @@
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">$D$41&amp;E42</f>
-        <v>081230757192</v>
+        <v>081230757292</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">A42&amp;"_onde"</f>
@@ -2592,7 +2632,7 @@
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">$D$41&amp;E43</f>
-        <v>081230757193</v>
+        <v>081230757293</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">A43&amp;"_onde"</f>
@@ -2608,7 +2648,7 @@
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">$D$41&amp;E44</f>
-        <v>081230757194</v>
+        <v>081230757294</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">A44&amp;"_onde"</f>
@@ -2624,7 +2664,7 @@
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">$D$41&amp;E45</f>
-        <v>081230757195</v>
+        <v>081230757295</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">A45&amp;"_onde"</f>
@@ -2640,7 +2680,7 @@
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">$D$41&amp;E46</f>
-        <v>081230757196</v>
+        <v>081230757296</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">A46&amp;"_onde"</f>
@@ -2656,7 +2696,7 @@
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">$D$41&amp;E47</f>
-        <v>081230757197</v>
+        <v>081230757297</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">A47&amp;"_onde"</f>
@@ -2672,7 +2712,7 @@
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">$D$41&amp;E48</f>
-        <v>081230757198</v>
+        <v>081230757298</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">A48&amp;"_onde"</f>
@@ -2688,7 +2728,7 @@
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">$D$41&amp;E49</f>
-        <v>081230757199</v>
+        <v>081230757299</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">A49&amp;"_onde"</f>
@@ -2704,7 +2744,7 @@
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">$D$41&amp;E50</f>
-        <v>081230757190</v>
+        <v>081230757290</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">A50&amp;"_onde"</f>
@@ -2718,15 +2758,15 @@
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>13</v>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">$D$51&amp;E51</f>
-        <v>081230757101</v>
+        <v>081230757201</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">A51&amp;"_onde"</f>
@@ -2742,7 +2782,7 @@
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">$D$51&amp;E52</f>
-        <v>081230757102</v>
+        <v>081230757202</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">A52&amp;"_onde"</f>
@@ -2758,7 +2798,7 @@
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">$D$51&amp;E53</f>
-        <v>081230757103</v>
+        <v>081230757203</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">A53&amp;"_onde"</f>
@@ -2774,7 +2814,7 @@
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">$D$51&amp;E54</f>
-        <v>081230757104</v>
+        <v>081230757204</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">A54&amp;"_onde"</f>
@@ -2790,7 +2830,7 @@
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">$D$51&amp;E55</f>
-        <v>081230757105</v>
+        <v>081230757205</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">A55&amp;"_onde"</f>
@@ -2806,7 +2846,7 @@
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">$D$51&amp;E56</f>
-        <v>081230757106</v>
+        <v>081230757206</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">A56&amp;"_onde"</f>
@@ -2822,7 +2862,7 @@
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">$D$51&amp;E57</f>
-        <v>081230757107</v>
+        <v>081230757207</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">A57&amp;"_onde"</f>
@@ -2838,7 +2878,7 @@
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">$D$51&amp;E58</f>
-        <v>081230757108</v>
+        <v>081230757208</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">A58&amp;"_onde"</f>
@@ -2854,7 +2894,7 @@
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">$D$51&amp;E59</f>
-        <v>081230757109</v>
+        <v>081230757209</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">A59&amp;"_onde"</f>
@@ -2870,7 +2910,7 @@
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">$D$51&amp;E60</f>
-        <v>081230757100</v>
+        <v>081230757200</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">A60&amp;"_onde"</f>
@@ -2881,15 +2921,15 @@
       <c r="A61" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>14</v>
+      <c r="D61" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">$D$61&amp;E61</f>
-        <v>081230757111</v>
+        <v>081230757211</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">A61&amp;"_onde"</f>
@@ -2905,7 +2945,7 @@
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">$D$61&amp;E62</f>
-        <v>081230757112</v>
+        <v>081230757212</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">A62&amp;"_onde"</f>
@@ -2921,7 +2961,7 @@
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">$D$61&amp;E63</f>
-        <v>081230757113</v>
+        <v>081230757213</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">A63&amp;"_onde"</f>
@@ -2937,7 +2977,7 @@
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">$D$61&amp;E64</f>
-        <v>081230757114</v>
+        <v>081230757214</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">A64&amp;"_onde"</f>
@@ -2953,7 +2993,7 @@
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">$D$61&amp;E65</f>
-        <v>081230757115</v>
+        <v>081230757215</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">A65&amp;"_onde"</f>
@@ -2969,7 +3009,7 @@
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">$D$61&amp;E66</f>
-        <v>081230757116</v>
+        <v>081230757216</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">A66&amp;"_onde"</f>
@@ -2985,7 +3025,7 @@
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">$D$61&amp;E67</f>
-        <v>081230757117</v>
+        <v>081230757217</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">A67&amp;"_onde"</f>
@@ -3001,7 +3041,7 @@
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">$D$61&amp;E68</f>
-        <v>081230757118</v>
+        <v>081230757218</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">A68&amp;"_onde"</f>
@@ -3017,7 +3057,7 @@
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">$D$61&amp;E69</f>
-        <v>081230757119</v>
+        <v>081230757219</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">A69&amp;"_onde"</f>
@@ -3033,7 +3073,7 @@
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">$D$61&amp;E70</f>
-        <v>081230757110</v>
+        <v>081230757210</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">A70&amp;"_onde"</f>
@@ -3044,15 +3084,15 @@
       <c r="A71" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>15</v>
+      <c r="D71" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">$D$71&amp;E71</f>
-        <v>081230757121</v>
+        <v>081230757221</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">A71&amp;"_onde"</f>
@@ -3068,7 +3108,7 @@
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">$D$71&amp;E72</f>
-        <v>081230757122</v>
+        <v>081230757222</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">A72&amp;"_onde"</f>
@@ -3084,7 +3124,7 @@
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">$D$71&amp;E73</f>
-        <v>081230757123</v>
+        <v>081230757223</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">A73&amp;"_onde"</f>
@@ -3100,7 +3140,7 @@
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">$D$71&amp;E74</f>
-        <v>081230757124</v>
+        <v>081230757224</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">A74&amp;"_onde"</f>
@@ -3116,7 +3156,7 @@
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">$D$71&amp;E75</f>
-        <v>081230757125</v>
+        <v>081230757225</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">A75&amp;"_onde"</f>
@@ -3132,7 +3172,7 @@
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">$D$71&amp;E76</f>
-        <v>081230757126</v>
+        <v>081230757226</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">A76&amp;"_onde"</f>
@@ -3148,7 +3188,7 @@
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">$D$71&amp;E77</f>
-        <v>081230757127</v>
+        <v>081230757227</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">A77&amp;"_onde"</f>
@@ -3164,7 +3204,7 @@
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">$D$71&amp;E78</f>
-        <v>081230757128</v>
+        <v>081230757228</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">A78&amp;"_onde"</f>
@@ -3180,7 +3220,7 @@
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">$D$71&amp;E79</f>
-        <v>081230757129</v>
+        <v>081230757229</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">A79&amp;"_onde"</f>
@@ -3196,7 +3236,7 @@
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">$D$71&amp;E80</f>
-        <v>081230757120</v>
+        <v>081230757220</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">A80&amp;"_onde"</f>
@@ -3207,15 +3247,15 @@
       <c r="A81" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>16</v>
+      <c r="D81" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">$D$81&amp;E81</f>
-        <v>081230757131</v>
+        <v>081230757231</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">A81&amp;"_onde"</f>
@@ -3231,7 +3271,7 @@
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">$D$81&amp;E82</f>
-        <v>081230757132</v>
+        <v>081230757232</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">A82&amp;"_onde"</f>
@@ -3247,7 +3287,7 @@
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">$D$81&amp;E83</f>
-        <v>081230757133</v>
+        <v>081230757233</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">A83&amp;"_onde"</f>
@@ -3263,7 +3303,7 @@
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">$D$81&amp;E84</f>
-        <v>081230757134</v>
+        <v>081230757234</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">A84&amp;"_onde"</f>
@@ -3279,7 +3319,7 @@
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">$D$81&amp;E85</f>
-        <v>081230757135</v>
+        <v>081230757235</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">A85&amp;"_onde"</f>
@@ -3295,7 +3335,7 @@
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">$D$81&amp;E86</f>
-        <v>081230757136</v>
+        <v>081230757236</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">A86&amp;"_onde"</f>
@@ -3311,7 +3351,7 @@
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">$D$81&amp;E87</f>
-        <v>081230757137</v>
+        <v>081230757237</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">A87&amp;"_onde"</f>
@@ -3327,7 +3367,7 @@
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">$D$81&amp;E88</f>
-        <v>081230757138</v>
+        <v>081230757238</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">A88&amp;"_onde"</f>
@@ -3343,7 +3383,7 @@
       </c>
       <c r="F89" s="0" t="str">
         <f aca="false">$D$81&amp;E89</f>
-        <v>081230757139</v>
+        <v>081230757239</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">A89&amp;"_onde"</f>
@@ -3359,7 +3399,7 @@
       </c>
       <c r="F90" s="0" t="str">
         <f aca="false">$D$81&amp;E90</f>
-        <v>081230757130</v>
+        <v>081230757230</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">A90&amp;"_onde"</f>
@@ -3370,15 +3410,15 @@
       <c r="A91" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>17</v>
+      <c r="D91" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F91" s="0" t="str">
         <f aca="false">$D$91&amp;E91</f>
-        <v>081230757141</v>
+        <v>081230757241</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">A91&amp;"_onde"</f>
@@ -3394,7 +3434,7 @@
       </c>
       <c r="F92" s="0" t="str">
         <f aca="false">$D$91&amp;E92</f>
-        <v>081230757142</v>
+        <v>081230757242</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">A92&amp;"_onde"</f>
@@ -3410,7 +3450,7 @@
       </c>
       <c r="F93" s="0" t="str">
         <f aca="false">$D$91&amp;E93</f>
-        <v>081230757143</v>
+        <v>081230757243</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">A93&amp;"_onde"</f>
@@ -3426,7 +3466,7 @@
       </c>
       <c r="F94" s="0" t="str">
         <f aca="false">$D$91&amp;E94</f>
-        <v>081230757144</v>
+        <v>081230757244</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">A94&amp;"_onde"</f>
@@ -3442,7 +3482,7 @@
       </c>
       <c r="F95" s="0" t="str">
         <f aca="false">$D$91&amp;E95</f>
-        <v>081230757145</v>
+        <v>081230757245</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">A95&amp;"_onde"</f>
@@ -3458,7 +3498,7 @@
       </c>
       <c r="F96" s="0" t="str">
         <f aca="false">$D$91&amp;E96</f>
-        <v>081230757146</v>
+        <v>081230757246</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">A96&amp;"_onde"</f>
@@ -3474,7 +3514,7 @@
       </c>
       <c r="F97" s="0" t="str">
         <f aca="false">$D$91&amp;E97</f>
-        <v>081230757147</v>
+        <v>081230757247</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">A97&amp;"_onde"</f>
@@ -3490,7 +3530,7 @@
       </c>
       <c r="F98" s="0" t="str">
         <f aca="false">$D$91&amp;E98</f>
-        <v>081230757148</v>
+        <v>081230757248</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">A98&amp;"_onde"</f>
@@ -3506,7 +3546,7 @@
       </c>
       <c r="F99" s="0" t="str">
         <f aca="false">$D$91&amp;E99</f>
-        <v>081230757149</v>
+        <v>081230757249</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">A99&amp;"_onde"</f>
@@ -3522,7 +3562,7 @@
       </c>
       <c r="F100" s="0" t="str">
         <f aca="false">$D$91&amp;E100</f>
-        <v>081230757140</v>
+        <v>081230757240</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">A100&amp;"_onde"</f>

--- a/kelompok nomer2.xlsx
+++ b/kelompok nomer2.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve">+62 812-3075-7151</t>
   </si>
@@ -106,6 +107,36 @@
   <si>
     <t xml:space="preserve">08123075724</t>
   </si>
+  <si>
+    <t xml:space="preserve">08123075735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075734</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,10 +231,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,10 +254,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D91 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -1906,11 +1933,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -1934,7 +1961,7 @@
       <c r="E1" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="str">
+      <c r="F1" s="0" t="str">
         <f aca="false">$D$1&amp;E1</f>
         <v>081230757251</v>
       </c>
@@ -3563,6 +3590,1687 @@
       <c r="F100" s="0" t="str">
         <f aca="false">$D$91&amp;E100</f>
         <v>081230757240</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757351</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757352</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757353</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757354</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757355</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757356</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757357</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757358</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757359</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757350</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757361</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757362</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757363</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757364</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757365</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757366</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757367</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757368</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757369</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757360</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757371</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757372</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757373</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757374</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757375</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757376</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757377</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757378</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757379</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757370</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757381</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757382</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757383</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757384</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757385</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757386</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757387</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757388</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757389</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757380</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757391</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757392</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757393</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757394</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757395</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757396</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757397</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757398</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757399</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757390</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757301</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757302</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757303</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757304</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757305</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757306</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757307</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757308</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757309</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757300</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757311</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757312</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757313</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757314</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757315</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757316</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757317</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757318</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757319</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757310</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757321</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757322</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757323</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757324</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757325</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757326</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757327</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757328</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757329</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757320</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757331</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757332</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757333</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757334</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757335</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757336</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757337</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757338</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757339</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757330</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757341</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757342</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757343</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757344</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757345</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757346</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757347</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757348</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757349</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757340</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">A100&amp;"_onde"</f>

--- a/kelompok nomer2.xlsx
+++ b/kelompok nomer2.xlsx
@@ -5,12 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t xml:space="preserve">+62 812-3075-7151</t>
   </si>
@@ -136,6 +141,156 @@
   </si>
   <si>
     <t xml:space="preserve">08123075734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075784</t>
   </si>
 </sst>
 </file>
@@ -254,10 +409,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D91 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -1934,10 +2089,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D91"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -3614,11 +3769,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="F1:F100 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -5286,4 +5441,8409 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757451</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757452</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757453</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757454</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757455</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757456</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757457</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757458</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757459</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757450</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757461</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757462</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757463</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757464</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757465</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757466</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757467</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757468</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757469</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757460</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757471</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757472</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757473</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757474</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757475</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757476</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757477</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757478</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757479</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757470</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757481</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757482</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757483</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757484</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757485</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757486</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757487</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757488</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757489</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757480</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757491</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757492</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757493</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757494</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757495</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757496</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757497</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757498</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757499</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757490</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757401</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757402</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757403</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757404</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757405</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757406</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757407</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757408</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757409</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757400</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757411</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757412</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757413</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757414</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757415</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757416</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757417</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757418</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757419</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757410</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757421</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757422</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757423</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757424</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757425</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757426</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757427</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757428</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757429</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757420</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757431</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757432</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757433</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757434</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757435</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757436</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757437</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757438</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757439</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757430</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757441</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757442</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757443</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757444</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757445</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757446</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757447</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757448</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757449</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757440</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F102" activeCellId="1" sqref="F1:F100 F102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757551</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757552</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757553</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757554</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757555</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757556</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757557</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757558</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757559</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757550</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757561</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757562</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757563</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757564</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757565</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757566</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757567</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757568</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757569</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757560</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757571</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757572</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757573</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757574</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757575</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757576</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757577</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757578</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757579</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757570</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757581</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757582</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757583</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757584</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757585</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757586</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757587</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757588</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757589</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757580</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757591</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757592</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757593</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757594</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757595</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757596</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757597</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757598</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757599</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757590</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757501</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757502</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757503</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757504</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757505</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757506</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757507</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757508</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757509</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757500</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757511</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757512</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757513</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757514</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757515</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757516</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757517</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757518</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757519</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757510</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757521</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757522</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757523</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757524</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757525</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757526</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757527</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757528</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757529</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757520</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757531</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757532</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757533</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757534</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757535</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757536</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757537</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757538</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757539</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757530</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757541</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757542</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757543</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757544</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757545</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757546</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757547</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757548</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757549</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757540</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F1:F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757651</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757652</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757653</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757654</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757655</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757656</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757657</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757658</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757659</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757650</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757661</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757662</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757663</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757664</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757665</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757666</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757667</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757668</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757669</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757660</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757671</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757672</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757673</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757674</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757675</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757676</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757677</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757678</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757679</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757670</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757681</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757682</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757683</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757684</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757685</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757686</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757687</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757688</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757689</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757680</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757691</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757692</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757693</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757694</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757695</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757696</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757697</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757698</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757699</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757690</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757601</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757602</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757603</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757604</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757605</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757606</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757607</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757608</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757609</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757600</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757611</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757612</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757613</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757614</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757615</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757616</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757617</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757618</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757619</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757610</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757621</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757622</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757623</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757624</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757625</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757626</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757627</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757628</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757629</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757620</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757631</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757632</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757633</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757634</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757635</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757636</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757637</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757638</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757639</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757630</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757641</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757642</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757643</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757644</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757645</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757646</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757647</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757648</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757649</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757640</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757751</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757752</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757753</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757754</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757755</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757756</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757757</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757758</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757759</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757750</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757761</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757762</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757763</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757764</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757765</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757766</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757767</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757768</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757769</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757760</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757771</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757772</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757773</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757774</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757775</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757776</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757777</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757778</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757779</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757770</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757781</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757782</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757783</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757784</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757785</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757786</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757787</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757788</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757789</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757780</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757791</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757792</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757793</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757794</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757795</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757796</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757797</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757798</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757799</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757790</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757701</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757702</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757703</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757704</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757705</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757706</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757707</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757708</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757709</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757700</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757711</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757712</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757713</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757714</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757715</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757716</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757717</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757718</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757719</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757710</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757721</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757722</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757723</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757724</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757725</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757726</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757727</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757728</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757729</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757720</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757731</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757732</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757733</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757734</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757735</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757736</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757737</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757738</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757739</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757730</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757741</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757742</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757743</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757744</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757745</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757746</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757747</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757748</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757749</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757740</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757851</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757852</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757853</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757854</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757855</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757856</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757857</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757858</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757859</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757850</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757861</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757862</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757863</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757864</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757865</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757866</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757867</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757868</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757869</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757860</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757871</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757872</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757873</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757874</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757875</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757876</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757877</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757878</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757879</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757870</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757881</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757882</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757883</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757884</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757885</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757886</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757887</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757888</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757889</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757880</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757891</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757892</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757893</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757894</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757895</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757896</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757897</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757898</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757899</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757890</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757801</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757802</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757803</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757804</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757805</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757806</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757807</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757808</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757809</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757800</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757811</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757812</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757813</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757814</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757815</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757816</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757817</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757818</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757819</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757810</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757821</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757822</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757823</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757824</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757825</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757826</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757827</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757828</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757829</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757820</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757831</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757832</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757833</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757834</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757835</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757836</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757837</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757838</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757839</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757830</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757841</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757842</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757843</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757844</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757845</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757846</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757847</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757848</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757849</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757840</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/kelompok nomer2.xlsx
+++ b/kelompok nomer2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="6" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t xml:space="preserve">+62 812-3075-7151</t>
   </si>
@@ -292,6 +293,36 @@
   <si>
     <t xml:space="preserve">08123075784</t>
   </si>
+  <si>
+    <t xml:space="preserve">08123075795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075794</t>
+  </si>
 </sst>
 </file>
 
@@ -409,10 +440,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -2089,10 +2120,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -3770,10 +3801,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="F1:F100 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="D1 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -5451,10 +5482,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -7132,10 +7163,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="1" sqref="F1:F100 F102"/>
+      <selection pane="topLeft" activeCell="F102" activeCellId="1" sqref="D1 F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -8813,10 +8844,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F1:F100"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="D1 F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -10494,10 +10525,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -12174,11 +12205,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D1 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -13846,4 +13877,1685 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757951</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757952</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757953</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757954</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757955</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757956</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757957</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757958</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757959</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757950</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757961</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757962</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757963</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757964</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757965</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757966</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757967</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757968</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757969</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757960</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757971</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757972</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757973</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757974</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757975</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757976</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757977</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757978</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757979</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757970</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757981</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757982</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757983</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757984</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757985</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757986</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757987</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757988</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757989</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757980</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757991</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757992</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757993</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757994</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757995</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757996</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757997</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757998</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757999</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757990</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757901</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757902</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757903</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757904</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757905</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757906</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757907</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757908</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757909</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757900</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757911</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757912</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757913</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757914</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757915</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757916</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757917</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757918</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757919</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757910</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757921</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757922</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757923</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757924</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757925</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757926</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757927</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757928</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757929</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757920</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757931</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757932</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757933</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757934</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757935</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757936</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757937</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757938</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757939</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757930</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757941</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757942</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757943</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757944</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757945</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757946</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757947</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757948</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757949</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757940</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/kelompok nomer2.xlsx
+++ b/kelompok nomer2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="7" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="8" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="0" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
   <si>
     <t xml:space="preserve">+62 812-3075-7151</t>
   </si>
@@ -323,6 +324,36 @@
   <si>
     <t xml:space="preserve">08123075794</t>
   </si>
+  <si>
+    <t xml:space="preserve">08123075705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08123075704</t>
+  </si>
 </sst>
 </file>
 
@@ -440,10 +471,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -2105,6 +2136,1687 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <f aca="false">$D$1&amp;E1</f>
+        <v>081230757051</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <f aca="false">A1&amp;"_onde"</f>
+        <v>1_onde</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">$D$1&amp;E2</f>
+        <v>081230757052</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">A2&amp;"_onde"</f>
+        <v>2_onde</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">$D$1&amp;E3</f>
+        <v>081230757053</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">A3&amp;"_onde"</f>
+        <v>3_onde</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">$D$1&amp;E4</f>
+        <v>081230757054</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">A4&amp;"_onde"</f>
+        <v>4_onde</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">$D$1&amp;E5</f>
+        <v>081230757055</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">A5&amp;"_onde"</f>
+        <v>5_onde</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">$D$1&amp;E6</f>
+        <v>081230757056</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">A6&amp;"_onde"</f>
+        <v>6_onde</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">$D$1&amp;E7</f>
+        <v>081230757057</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">A7&amp;"_onde"</f>
+        <v>7_onde</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">$D$1&amp;E8</f>
+        <v>081230757058</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">A8&amp;"_onde"</f>
+        <v>8_onde</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">$D$1&amp;E9</f>
+        <v>081230757059</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">A9&amp;"_onde"</f>
+        <v>9_onde</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">$D$1&amp;E10</f>
+        <v>081230757050</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">A10&amp;"_onde"</f>
+        <v>10_onde</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">$D$11&amp;E11</f>
+        <v>081230757061</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">A11&amp;"_onde"</f>
+        <v>11_onde</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">$D$11&amp;E12</f>
+        <v>081230757062</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">A12&amp;"_onde"</f>
+        <v>12_onde</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">$D$11&amp;E13</f>
+        <v>081230757063</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">A13&amp;"_onde"</f>
+        <v>13_onde</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">$D$11&amp;E14</f>
+        <v>081230757064</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">A14&amp;"_onde"</f>
+        <v>14_onde</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">$D$11&amp;E15</f>
+        <v>081230757065</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">A15&amp;"_onde"</f>
+        <v>15_onde</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">$D$11&amp;E16</f>
+        <v>081230757066</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">A16&amp;"_onde"</f>
+        <v>16_onde</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">$D$11&amp;E17</f>
+        <v>081230757067</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">A17&amp;"_onde"</f>
+        <v>17_onde</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">$D$11&amp;E18</f>
+        <v>081230757068</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">A18&amp;"_onde"</f>
+        <v>18_onde</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">$D$11&amp;E19</f>
+        <v>081230757069</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">A19&amp;"_onde"</f>
+        <v>19_onde</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">$D$11&amp;E20</f>
+        <v>081230757060</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">A20&amp;"_onde"</f>
+        <v>20_onde</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">$D$21&amp;E21</f>
+        <v>081230757071</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">A21&amp;"_onde"</f>
+        <v>21_onde</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">$D$21&amp;E22</f>
+        <v>081230757072</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">A22&amp;"_onde"</f>
+        <v>22_onde</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">$D$21&amp;E23</f>
+        <v>081230757073</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">A23&amp;"_onde"</f>
+        <v>23_onde</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">$D$21&amp;E24</f>
+        <v>081230757074</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">A24&amp;"_onde"</f>
+        <v>24_onde</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">$D$21&amp;E25</f>
+        <v>081230757075</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">A25&amp;"_onde"</f>
+        <v>25_onde</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">$D$21&amp;E26</f>
+        <v>081230757076</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">A26&amp;"_onde"</f>
+        <v>26_onde</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">$D$21&amp;E27</f>
+        <v>081230757077</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">A27&amp;"_onde"</f>
+        <v>27_onde</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">$D$21&amp;E28</f>
+        <v>081230757078</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">A28&amp;"_onde"</f>
+        <v>28_onde</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">$D$21&amp;E29</f>
+        <v>081230757079</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">A29&amp;"_onde"</f>
+        <v>29_onde</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">$D$21&amp;E30</f>
+        <v>081230757070</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">A30&amp;"_onde"</f>
+        <v>30_onde</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">$D$31&amp;E31</f>
+        <v>081230757081</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">A31&amp;"_onde"</f>
+        <v>31_onde</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">$D$31&amp;E32</f>
+        <v>081230757082</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">A32&amp;"_onde"</f>
+        <v>32_onde</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">$D$31&amp;E33</f>
+        <v>081230757083</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">A33&amp;"_onde"</f>
+        <v>33_onde</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">$D$31&amp;E34</f>
+        <v>081230757084</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">A34&amp;"_onde"</f>
+        <v>34_onde</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">$D$31&amp;E35</f>
+        <v>081230757085</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">A35&amp;"_onde"</f>
+        <v>35_onde</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">$D$31&amp;E36</f>
+        <v>081230757086</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">A36&amp;"_onde"</f>
+        <v>36_onde</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">$D$31&amp;E37</f>
+        <v>081230757087</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">A37&amp;"_onde"</f>
+        <v>37_onde</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">$D$31&amp;E38</f>
+        <v>081230757088</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">A38&amp;"_onde"</f>
+        <v>38_onde</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">$D$31&amp;E39</f>
+        <v>081230757089</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">A39&amp;"_onde"</f>
+        <v>39_onde</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">$D$31&amp;E40</f>
+        <v>081230757080</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">A40&amp;"_onde"</f>
+        <v>40_onde</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">$D$41&amp;E41</f>
+        <v>081230757091</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">A41&amp;"_onde"</f>
+        <v>41_onde</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">$D$41&amp;E42</f>
+        <v>081230757092</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">A42&amp;"_onde"</f>
+        <v>42_onde</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">$D$41&amp;E43</f>
+        <v>081230757093</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">A43&amp;"_onde"</f>
+        <v>43_onde</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">$D$41&amp;E44</f>
+        <v>081230757094</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">A44&amp;"_onde"</f>
+        <v>44_onde</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">$D$41&amp;E45</f>
+        <v>081230757095</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">A45&amp;"_onde"</f>
+        <v>45_onde</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">$D$41&amp;E46</f>
+        <v>081230757096</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">A46&amp;"_onde"</f>
+        <v>46_onde</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">$D$41&amp;E47</f>
+        <v>081230757097</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">A47&amp;"_onde"</f>
+        <v>47_onde</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">$D$41&amp;E48</f>
+        <v>081230757098</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">A48&amp;"_onde"</f>
+        <v>48_onde</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">$D$41&amp;E49</f>
+        <v>081230757099</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">A49&amp;"_onde"</f>
+        <v>49_onde</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">$D$41&amp;E50</f>
+        <v>081230757090</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">A50&amp;"_onde"</f>
+        <v>50_onde</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">$D$51&amp;E51</f>
+        <v>081230757001</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">A51&amp;"_onde"</f>
+        <v>51_onde</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">$D$51&amp;E52</f>
+        <v>081230757002</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">A52&amp;"_onde"</f>
+        <v>52_onde</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">$D$51&amp;E53</f>
+        <v>081230757003</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">A53&amp;"_onde"</f>
+        <v>53_onde</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">$D$51&amp;E54</f>
+        <v>081230757004</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">A54&amp;"_onde"</f>
+        <v>54_onde</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">$D$51&amp;E55</f>
+        <v>081230757005</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">A55&amp;"_onde"</f>
+        <v>55_onde</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">$D$51&amp;E56</f>
+        <v>081230757006</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">A56&amp;"_onde"</f>
+        <v>56_onde</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">$D$51&amp;E57</f>
+        <v>081230757007</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">A57&amp;"_onde"</f>
+        <v>57_onde</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">$D$51&amp;E58</f>
+        <v>081230757008</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">A58&amp;"_onde"</f>
+        <v>58_onde</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">$D$51&amp;E59</f>
+        <v>081230757009</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">A59&amp;"_onde"</f>
+        <v>59_onde</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">$D$51&amp;E60</f>
+        <v>081230757000</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">A60&amp;"_onde"</f>
+        <v>60_onde</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">$D$61&amp;E61</f>
+        <v>081230757011</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">A61&amp;"_onde"</f>
+        <v>61_onde</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">$D$61&amp;E62</f>
+        <v>081230757012</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">A62&amp;"_onde"</f>
+        <v>62_onde</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">$D$61&amp;E63</f>
+        <v>081230757013</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">A63&amp;"_onde"</f>
+        <v>63_onde</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">$D$61&amp;E64</f>
+        <v>081230757014</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">A64&amp;"_onde"</f>
+        <v>64_onde</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">$D$61&amp;E65</f>
+        <v>081230757015</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">A65&amp;"_onde"</f>
+        <v>65_onde</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">$D$61&amp;E66</f>
+        <v>081230757016</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">A66&amp;"_onde"</f>
+        <v>66_onde</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">$D$61&amp;E67</f>
+        <v>081230757017</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">A67&amp;"_onde"</f>
+        <v>67_onde</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">$D$61&amp;E68</f>
+        <v>081230757018</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">A68&amp;"_onde"</f>
+        <v>68_onde</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">$D$61&amp;E69</f>
+        <v>081230757019</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">A69&amp;"_onde"</f>
+        <v>69_onde</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">$D$61&amp;E70</f>
+        <v>081230757010</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">A70&amp;"_onde"</f>
+        <v>70_onde</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">$D$71&amp;E71</f>
+        <v>081230757021</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">A71&amp;"_onde"</f>
+        <v>71_onde</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">$D$71&amp;E72</f>
+        <v>081230757022</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">A72&amp;"_onde"</f>
+        <v>72_onde</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">$D$71&amp;E73</f>
+        <v>081230757023</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">A73&amp;"_onde"</f>
+        <v>73_onde</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">$D$71&amp;E74</f>
+        <v>081230757024</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">A74&amp;"_onde"</f>
+        <v>74_onde</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">$D$71&amp;E75</f>
+        <v>081230757025</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">A75&amp;"_onde"</f>
+        <v>75_onde</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">$D$71&amp;E76</f>
+        <v>081230757026</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">A76&amp;"_onde"</f>
+        <v>76_onde</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">$D$71&amp;E77</f>
+        <v>081230757027</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">A77&amp;"_onde"</f>
+        <v>77_onde</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">$D$71&amp;E78</f>
+        <v>081230757028</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">A78&amp;"_onde"</f>
+        <v>78_onde</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">$D$71&amp;E79</f>
+        <v>081230757029</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">A79&amp;"_onde"</f>
+        <v>79_onde</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">$D$71&amp;E80</f>
+        <v>081230757020</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">A80&amp;"_onde"</f>
+        <v>80_onde</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">$D$81&amp;E81</f>
+        <v>081230757031</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">A81&amp;"_onde"</f>
+        <v>81_onde</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">$D$81&amp;E82</f>
+        <v>081230757032</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">A82&amp;"_onde"</f>
+        <v>82_onde</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">$D$81&amp;E83</f>
+        <v>081230757033</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">A83&amp;"_onde"</f>
+        <v>83_onde</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">$D$81&amp;E84</f>
+        <v>081230757034</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">A84&amp;"_onde"</f>
+        <v>84_onde</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">$D$81&amp;E85</f>
+        <v>081230757035</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">A85&amp;"_onde"</f>
+        <v>85_onde</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">$D$81&amp;E86</f>
+        <v>081230757036</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">A86&amp;"_onde"</f>
+        <v>86_onde</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">$D$81&amp;E87</f>
+        <v>081230757037</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">A87&amp;"_onde"</f>
+        <v>87_onde</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">$D$81&amp;E88</f>
+        <v>081230757038</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">A88&amp;"_onde"</f>
+        <v>88_onde</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">$D$81&amp;E89</f>
+        <v>081230757039</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">A89&amp;"_onde"</f>
+        <v>89_onde</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">$D$81&amp;E90</f>
+        <v>081230757030</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">A90&amp;"_onde"</f>
+        <v>90_onde</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">$D$91&amp;E91</f>
+        <v>081230757041</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">A91&amp;"_onde"</f>
+        <v>91_onde</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">$D$91&amp;E92</f>
+        <v>081230757042</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">A92&amp;"_onde"</f>
+        <v>92_onde</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">$D$91&amp;E93</f>
+        <v>081230757043</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">A93&amp;"_onde"</f>
+        <v>93_onde</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">$D$91&amp;E94</f>
+        <v>081230757044</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">A94&amp;"_onde"</f>
+        <v>94_onde</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">$D$91&amp;E95</f>
+        <v>081230757045</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">A95&amp;"_onde"</f>
+        <v>95_onde</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">$D$91&amp;E96</f>
+        <v>081230757046</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">A96&amp;"_onde"</f>
+        <v>96_onde</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">$D$91&amp;E97</f>
+        <v>081230757047</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">A97&amp;"_onde"</f>
+        <v>97_onde</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">$D$91&amp;E98</f>
+        <v>081230757048</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">A98&amp;"_onde"</f>
+        <v>98_onde</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">$D$91&amp;E99</f>
+        <v>081230757049</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">A99&amp;"_onde"</f>
+        <v>99_onde</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">$D$91&amp;E100</f>
+        <v>081230757040</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">A100&amp;"_onde"</f>
+        <v>100_onde</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2120,10 +3832,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -3801,10 +5513,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="D1 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="F1:F100 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -5482,10 +7194,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -7163,10 +8875,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="1" sqref="D1 F102"/>
+      <selection pane="topLeft" activeCell="F102" activeCellId="1" sqref="F1:F100 F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -8844,10 +10556,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="1" sqref="D1 F7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -10525,10 +12237,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -12206,10 +13918,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D1 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="F1:F100 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -13886,11 +15598,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="1" sqref="F1:F100 J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
